--- a/storage/OPDSUMMARYREPORT_TEMPLATE.xlsx
+++ b/storage/OPDSUMMARYREPORT_TEMPLATE.xlsx
@@ -1,31 +1,42 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28112"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\laragon\www\cesu\storage\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18D180A2-5BD9-48D5-998E-FEB29D413406}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B328D353-C2F4-4EA0-9E17-398ED787ED4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3735" yWindow="2145" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="14">
   <si>
     <t>OPD</t>
   </si>
@@ -55,14 +66,34 @@
   </si>
   <si>
     <t>PEDIA</t>
+  </si>
+  <si>
+    <t>Adult (20-59 y.o)</t>
+  </si>
+  <si>
+    <t>Geriatric (60 AND ABOVE)</t>
+  </si>
+  <si>
+    <t>ADULT</t>
+  </si>
+  <si>
+    <t>GERIATRIC</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -78,7 +109,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -101,24 +132,62 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -400,10 +469,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:T5"/>
+  <dimension ref="A1:T7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -412,67 +481,67 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2"/>
-      <c r="L1" s="2"/>
-      <c r="M1" s="2"/>
-      <c r="N1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="O1" s="2"/>
-      <c r="P1" s="2"/>
-      <c r="Q1" s="2"/>
-      <c r="R1" s="2"/>
-      <c r="S1" s="2"/>
-      <c r="T1" s="3" t="s">
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
+      <c r="H1" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="I1" s="6"/>
+      <c r="J1" s="6"/>
+      <c r="K1" s="6"/>
+      <c r="L1" s="6"/>
+      <c r="M1" s="6"/>
+      <c r="N1" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="O1" s="6"/>
+      <c r="P1" s="6"/>
+      <c r="Q1" s="6"/>
+      <c r="R1" s="6"/>
+      <c r="S1" s="6"/>
+      <c r="T1" s="9" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2" t="s">
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2" t="s">
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="I2" s="2"/>
-      <c r="J2" s="2"/>
-      <c r="K2" s="2" t="s">
+      <c r="I2" s="6"/>
+      <c r="J2" s="6"/>
+      <c r="K2" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="L2" s="2"/>
-      <c r="M2" s="2"/>
-      <c r="N2" s="2" t="s">
+      <c r="L2" s="6"/>
+      <c r="M2" s="6"/>
+      <c r="N2" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="O2" s="2"/>
-      <c r="P2" s="2"/>
-      <c r="Q2" s="2" t="s">
+      <c r="O2" s="6"/>
+      <c r="P2" s="6"/>
+      <c r="Q2" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="R2" s="2"/>
-      <c r="S2" s="2"/>
-      <c r="T2" s="3"/>
+      <c r="R2" s="6"/>
+      <c r="S2" s="6"/>
+      <c r="T2" s="9"/>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
@@ -532,121 +601,171 @@
       <c r="S3" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="T3" s="3"/>
+      <c r="T3" s="9"/>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="4">
-        <v>0</v>
-      </c>
-      <c r="C4" s="4">
-        <v>0</v>
-      </c>
-      <c r="D4" s="4">
-        <v>0</v>
-      </c>
-      <c r="E4" s="4">
-        <v>0</v>
-      </c>
-      <c r="F4" s="4">
-        <v>0</v>
-      </c>
-      <c r="G4" s="4">
-        <v>0</v>
-      </c>
-      <c r="H4" s="4">
-        <v>0</v>
-      </c>
-      <c r="I4" s="4">
-        <v>0</v>
-      </c>
-      <c r="J4" s="4">
-        <v>0</v>
-      </c>
-      <c r="K4" s="4">
-        <v>0</v>
-      </c>
-      <c r="L4" s="4">
-        <v>0</v>
-      </c>
-      <c r="M4" s="4">
-        <v>0</v>
-      </c>
-      <c r="N4" s="4">
-        <v>0</v>
-      </c>
-      <c r="O4" s="4">
-        <v>0</v>
-      </c>
-      <c r="P4" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q4" s="4">
-        <v>0</v>
-      </c>
-      <c r="R4" s="4">
-        <v>0</v>
-      </c>
-      <c r="S4" s="4">
-        <v>0</v>
-      </c>
-      <c r="T4" s="2">
+      <c r="B4" s="2">
+        <v>0</v>
+      </c>
+      <c r="C4" s="2">
+        <v>0</v>
+      </c>
+      <c r="D4" s="2">
+        <v>0</v>
+      </c>
+      <c r="E4" s="2">
+        <v>0</v>
+      </c>
+      <c r="F4" s="2">
+        <v>0</v>
+      </c>
+      <c r="G4" s="2">
+        <v>0</v>
+      </c>
+      <c r="H4" s="2">
+        <v>0</v>
+      </c>
+      <c r="I4" s="2">
+        <v>0</v>
+      </c>
+      <c r="J4" s="2">
+        <v>0</v>
+      </c>
+      <c r="K4" s="2">
+        <v>0</v>
+      </c>
+      <c r="L4" s="2">
+        <v>0</v>
+      </c>
+      <c r="M4" s="2">
+        <v>0</v>
+      </c>
+      <c r="N4" s="2">
+        <v>0</v>
+      </c>
+      <c r="O4" s="2">
+        <v>0</v>
+      </c>
+      <c r="P4" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q4" s="2">
+        <v>0</v>
+      </c>
+      <c r="R4" s="2">
+        <v>0</v>
+      </c>
+      <c r="S4" s="2">
+        <v>0</v>
+      </c>
+      <c r="T4" s="7">
+        <f>SUM(G5,M5,S5)</f>
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A5" s="3"/>
-      <c r="B5" s="5" t="s">
+      <c r="A5" s="5"/>
+      <c r="B5" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="5"/>
-      <c r="D5" s="5"/>
-      <c r="E5" s="5"/>
-      <c r="F5" s="5"/>
-      <c r="G5" s="4">
-        <v>0</v>
-      </c>
-      <c r="H5" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="I5" s="5"/>
-      <c r="J5" s="5"/>
-      <c r="K5" s="5"/>
-      <c r="L5" s="5"/>
-      <c r="M5" s="4">
-        <v>0</v>
-      </c>
-      <c r="N5" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="O5" s="5"/>
-      <c r="P5" s="5"/>
-      <c r="Q5" s="5"/>
-      <c r="R5" s="5"/>
-      <c r="S5" s="4">
-        <v>0</v>
-      </c>
-      <c r="T5" s="2"/>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4"/>
+      <c r="G5" s="2">
+        <f>SUM(B4:G4)</f>
+        <v>0</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="I5" s="4"/>
+      <c r="J5" s="4"/>
+      <c r="K5" s="4"/>
+      <c r="L5" s="4"/>
+      <c r="M5" s="2">
+        <f>SUM(H4:M4)</f>
+        <v>0</v>
+      </c>
+      <c r="N5" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="O5" s="4"/>
+      <c r="P5" s="4"/>
+      <c r="Q5" s="4"/>
+      <c r="R5" s="4"/>
+      <c r="S5" s="2">
+        <f>SUM(N4:S4)</f>
+        <v>0</v>
+      </c>
+      <c r="T5" s="8"/>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A6" s="2"/>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
+      <c r="I6" s="2"/>
+      <c r="J6" s="2"/>
+      <c r="K6" s="2"/>
+      <c r="L6" s="2"/>
+      <c r="M6" s="2"/>
+      <c r="N6" s="2"/>
+      <c r="O6" s="2"/>
+      <c r="P6" s="2"/>
+      <c r="Q6" s="2"/>
+      <c r="R6" s="2"/>
+      <c r="S6" s="2"/>
+      <c r="T6" s="2"/>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
+      <c r="I7" s="2"/>
+      <c r="J7" s="2"/>
+      <c r="K7" s="2"/>
+      <c r="L7" s="2"/>
+      <c r="M7" s="2"/>
+      <c r="N7" s="2"/>
+      <c r="O7" s="2"/>
+      <c r="P7" s="2"/>
+      <c r="Q7" s="2"/>
+      <c r="R7" s="2"/>
+      <c r="S7" s="2"/>
+      <c r="T7" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="B5:F5"/>
-    <mergeCell ref="H5:L5"/>
-    <mergeCell ref="N5:R5"/>
-    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="B1:G1"/>
+    <mergeCell ref="H1:M1"/>
+    <mergeCell ref="H2:J2"/>
+    <mergeCell ref="K2:M2"/>
     <mergeCell ref="T4:T5"/>
     <mergeCell ref="N1:S1"/>
     <mergeCell ref="N2:P2"/>
     <mergeCell ref="Q2:S2"/>
     <mergeCell ref="T1:T3"/>
+    <mergeCell ref="B5:F5"/>
+    <mergeCell ref="H5:L5"/>
+    <mergeCell ref="N5:R5"/>
+    <mergeCell ref="A4:A5"/>
     <mergeCell ref="B2:D2"/>
     <mergeCell ref="E2:G2"/>
-    <mergeCell ref="B1:G1"/>
-    <mergeCell ref="H1:M1"/>
-    <mergeCell ref="H2:J2"/>
-    <mergeCell ref="K2:M2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/storage/OPDSUMMARYREPORT_TEMPLATE.xlsx
+++ b/storage/OPDSUMMARYREPORT_TEMPLATE.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\laragon\www\cesu\storage\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B328D353-C2F4-4EA0-9E17-398ED787ED4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D699B29-8B42-4AB4-AFB9-DFEBC3F544F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -84,7 +84,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -96,6 +96,14 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -162,31 +170,35 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -472,7 +484,7 @@
   <dimension ref="A1:T7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -481,66 +493,66 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
-      <c r="G1" s="6"/>
-      <c r="H1" s="6" t="s">
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
+      <c r="G1" s="8"/>
+      <c r="H1" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="I1" s="6"/>
-      <c r="J1" s="6"/>
-      <c r="K1" s="6"/>
-      <c r="L1" s="6"/>
-      <c r="M1" s="6"/>
-      <c r="N1" s="6" t="s">
+      <c r="I1" s="8"/>
+      <c r="J1" s="8"/>
+      <c r="K1" s="8"/>
+      <c r="L1" s="8"/>
+      <c r="M1" s="8"/>
+      <c r="N1" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="O1" s="6"/>
-      <c r="P1" s="6"/>
-      <c r="Q1" s="6"/>
-      <c r="R1" s="6"/>
-      <c r="S1" s="6"/>
+      <c r="O1" s="8"/>
+      <c r="P1" s="8"/>
+      <c r="Q1" s="8"/>
+      <c r="R1" s="8"/>
+      <c r="S1" s="8"/>
       <c r="T1" s="9" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6" t="s">
+      <c r="C2" s="8"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="6"/>
-      <c r="G2" s="6"/>
-      <c r="H2" s="6" t="s">
+      <c r="F2" s="8"/>
+      <c r="G2" s="8"/>
+      <c r="H2" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="I2" s="6"/>
-      <c r="J2" s="6"/>
-      <c r="K2" s="6" t="s">
+      <c r="I2" s="8"/>
+      <c r="J2" s="8"/>
+      <c r="K2" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="L2" s="6"/>
-      <c r="M2" s="6"/>
-      <c r="N2" s="6" t="s">
+      <c r="L2" s="8"/>
+      <c r="M2" s="8"/>
+      <c r="N2" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="O2" s="6"/>
-      <c r="P2" s="6"/>
-      <c r="Q2" s="6" t="s">
+      <c r="O2" s="8"/>
+      <c r="P2" s="8"/>
+      <c r="Q2" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="R2" s="6"/>
-      <c r="S2" s="6"/>
+      <c r="R2" s="8"/>
+      <c r="S2" s="8"/>
       <c r="T2" s="9"/>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.25">
@@ -604,7 +616,7 @@
       <c r="T3" s="9"/>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A4" s="5" t="s">
+      <c r="A4" s="11" t="s">
         <v>8</v>
       </c>
       <c r="B4" s="2">
@@ -661,47 +673,47 @@
       <c r="S4" s="2">
         <v>0</v>
       </c>
-      <c r="T4" s="7">
+      <c r="T4" s="6">
         <f>SUM(G5,M5,S5)</f>
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A5" s="5"/>
-      <c r="B5" s="4" t="s">
+      <c r="A5" s="11"/>
+      <c r="B5" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4"/>
-      <c r="F5" s="4"/>
+      <c r="C5" s="10"/>
+      <c r="D5" s="10"/>
+      <c r="E5" s="10"/>
+      <c r="F5" s="10"/>
       <c r="G5" s="2">
         <f>SUM(B4:G4)</f>
         <v>0</v>
       </c>
-      <c r="H5" s="4" t="s">
+      <c r="H5" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="I5" s="4"/>
-      <c r="J5" s="4"/>
-      <c r="K5" s="4"/>
-      <c r="L5" s="4"/>
+      <c r="I5" s="10"/>
+      <c r="J5" s="10"/>
+      <c r="K5" s="10"/>
+      <c r="L5" s="10"/>
       <c r="M5" s="2">
         <f>SUM(H4:M4)</f>
         <v>0</v>
       </c>
-      <c r="N5" s="4" t="s">
+      <c r="N5" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="O5" s="4"/>
-      <c r="P5" s="4"/>
-      <c r="Q5" s="4"/>
-      <c r="R5" s="4"/>
+      <c r="O5" s="10"/>
+      <c r="P5" s="10"/>
+      <c r="Q5" s="10"/>
+      <c r="R5" s="10"/>
       <c r="S5" s="2">
         <f>SUM(N4:S4)</f>
         <v>0</v>
       </c>
-      <c r="T5" s="8"/>
+      <c r="T5" s="7"/>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A6" s="2"/>
@@ -729,43 +741,46 @@
       <c r="A7" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2"/>
-      <c r="H7" s="2"/>
-      <c r="I7" s="2"/>
-      <c r="J7" s="2"/>
-      <c r="K7" s="2"/>
-      <c r="L7" s="2"/>
-      <c r="M7" s="2"/>
-      <c r="N7" s="2"/>
-      <c r="O7" s="2"/>
-      <c r="P7" s="2"/>
-      <c r="Q7" s="2"/>
-      <c r="R7" s="2"/>
-      <c r="S7" s="2"/>
-      <c r="T7" s="2"/>
+      <c r="B7" s="4"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="4"/>
+      <c r="H7" s="4"/>
+      <c r="I7" s="4"/>
+      <c r="J7" s="4"/>
+      <c r="K7" s="4"/>
+      <c r="L7" s="4"/>
+      <c r="M7" s="4"/>
+      <c r="N7" s="4"/>
+      <c r="O7" s="4"/>
+      <c r="P7" s="4"/>
+      <c r="Q7" s="4"/>
+      <c r="R7" s="4"/>
+      <c r="S7" s="4"/>
+      <c r="T7" s="5">
+        <f>SUM(B7:S7)</f>
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="E2:G2"/>
     <mergeCell ref="B1:G1"/>
     <mergeCell ref="H1:M1"/>
     <mergeCell ref="H2:J2"/>
     <mergeCell ref="K2:M2"/>
+    <mergeCell ref="B5:F5"/>
+    <mergeCell ref="H5:L5"/>
     <mergeCell ref="T4:T5"/>
     <mergeCell ref="N1:S1"/>
     <mergeCell ref="N2:P2"/>
     <mergeCell ref="Q2:S2"/>
     <mergeCell ref="T1:T3"/>
-    <mergeCell ref="B5:F5"/>
-    <mergeCell ref="H5:L5"/>
     <mergeCell ref="N5:R5"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="B2:D2"/>
-    <mergeCell ref="E2:G2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
